--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -11,15 +11,20 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +341,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -346,6 +346,12 @@
       <c r="A1" t="n">
         <v>58.0</v>
       </c>
+      <c r="B1" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>33.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -352,6 +352,12 @@
       <c r="C1" t="n">
         <v>33.0</v>
       </c>
+      <c r="D1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>102.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\clothing-store\src\main\resources\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544C893-7F27-4049-9959-6A7A1CD80FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -58,7 +64,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,30 +341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E1" t="n">
-        <v>102.0</v>
-      </c>
-    </row>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -350,7 +350,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -350,11 +350,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
+    <row r="1"/>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -350,7 +350,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
     <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -350,11 +350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>58.0</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -350,7 +350,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
     <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/database/shopping_items.xlsx
+++ b/src/main/resources/database/shopping_items.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -350,11 +350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
